--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed5/result_data_RandomForest.xlsx
@@ -589,10 +589,10 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.65320000000001</v>
+        <v>-12.89630000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.258599999999999</v>
+        <v>-8.609499999999993</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.3782</v>
+        <v>-10.9195</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.7585</v>
+        <v>-13.8242</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.0762</v>
+        <v>-8.244999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.5619</v>
+        <v>-12.4975</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,10 +827,10 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.9334</v>
+        <v>-12.9987</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.447699999999996</v>
+        <v>-8.193400000000002</v>
       </c>
     </row>
     <row r="29">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.41279999999999</v>
+        <v>-13.52339999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.492</v>
+        <v>-13.41450000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.231799999999994</v>
+        <v>-8.2471</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.370199999999998</v>
+        <v>-7.6819</v>
       </c>
     </row>
     <row r="35">
@@ -939,10 +939,10 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.2099</v>
+        <v>-12.85180000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>-9.026199999999994</v>
+        <v>-8.877899999999997</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.404700000000002</v>
+        <v>-8.322400000000002</v>
       </c>
     </row>
     <row r="38">
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.94600000000001</v>
+        <v>-11.88970000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.984699999999995</v>
+        <v>-8.874999999999998</v>
       </c>
     </row>
     <row r="43">
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.36999999999999</v>
+        <v>-14.73229999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.975</v>
+        <v>-8.080999999999996</v>
       </c>
     </row>
     <row r="50">
@@ -1191,10 +1191,10 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.65810000000001</v>
+        <v>-12.5337</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.064500000000002</v>
+        <v>-8.086300000000003</v>
       </c>
     </row>
     <row r="55">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.02210000000001</v>
+        <v>-14.14890000000001</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.01579999999999</v>
+        <v>-13.05259999999998</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.8602</v>
+        <v>-11.6966</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.97999999999999</v>
+        <v>-11.4454</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.9727</v>
+        <v>-12.174</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.08340000000001</v>
+        <v>-11.44500000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.169600000000003</v>
+        <v>-8.078900000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.6783</v>
+        <v>-8.194900000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.33220000000001</v>
+        <v>-13.43140000000001</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.10879999999999</v>
+        <v>-14.38979999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.04530000000001</v>
+        <v>-12.17740000000001</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.4602</v>
+        <v>-10.4922</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.647099999999993</v>
+        <v>-8.551099999999996</v>
       </c>
     </row>
     <row r="98">
@@ -1821,10 +1821,10 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.2209</v>
+        <v>-12.81080000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.1722</v>
+        <v>-8.293899999999999</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.053699999999999</v>
+        <v>-8.054200000000002</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.693800000000003</v>
+        <v>-7.624199999999997</v>
       </c>
     </row>
     <row r="102">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.62080000000002</v>
+        <v>-12.94760000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.82860000000001</v>
+        <v>-12.70890000000001</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
